--- a/data-request/dreq_ocean.xlsx
+++ b/data-request/dreq_ocean.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="110">
   <si>
     <t>frequency</t>
   </si>
@@ -36,31 +36,316 @@
     <t>cell_methods</t>
   </si>
   <si>
+    <t>areacello</t>
+  </si>
+  <si>
+    <t>deptho</t>
+  </si>
+  <si>
+    <t>mlotst</t>
+  </si>
+  <si>
+    <t>sftof</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>sos</t>
+  </si>
+  <si>
+    <t>thetao</t>
+  </si>
+  <si>
+    <t>thkcello</t>
+  </si>
+  <si>
+    <t>tos</t>
+  </si>
+  <si>
+    <t>uo</t>
+  </si>
+  <si>
+    <t>vo</t>
+  </si>
+  <si>
+    <t>volcello</t>
+  </si>
+  <si>
+    <t>zos</t>
+  </si>
+  <si>
+    <t>cell_area</t>
+  </si>
+  <si>
+    <t>sea_floor_depth_below_geoid</t>
+  </si>
+  <si>
+    <t>ocean_mixed_layer_thickness_defined_by_sigma_t</t>
+  </si>
+  <si>
+    <t>sea_area_fraction</t>
+  </si>
+  <si>
+    <t>sea_water_salinity</t>
+  </si>
+  <si>
+    <t>sea_surface_salinity</t>
+  </si>
+  <si>
+    <t>sea_water_potential_temperature</t>
+  </si>
+  <si>
+    <t>cell_thickness</t>
+  </si>
+  <si>
+    <t>sea_surface_temperature</t>
+  </si>
+  <si>
+    <t>sea_water_x_velocity</t>
+  </si>
+  <si>
+    <t>sea_water_y_velocity</t>
+  </si>
+  <si>
+    <t>ocean_volume</t>
+  </si>
+  <si>
+    <t>sea_surface_height_above_geoid</t>
+  </si>
+  <si>
+    <t>Grid-Cell Area for Ocean Variables</t>
+  </si>
+  <si>
+    <t>Sea Floor Depth Below Geoid</t>
+  </si>
+  <si>
+    <t>Ocean Mixed Layer Thickness Defined by Sigma T</t>
+  </si>
+  <si>
+    <t>Sea Area Percentage</t>
+  </si>
+  <si>
+    <t>Sea Water Salinity</t>
+  </si>
+  <si>
+    <t>Sea Surface Salinity</t>
+  </si>
+  <si>
+    <t>Sea Water Potential Temperature</t>
+  </si>
+  <si>
+    <t>Ocean Model Cell Thickness</t>
+  </si>
+  <si>
+    <t>Sea Surface Temperature</t>
+  </si>
+  <si>
+    <t>Sea Water X Velocity</t>
+  </si>
+  <si>
+    <t>Sea Water Y Velocity</t>
+  </si>
+  <si>
+    <t>Ocean Grid-Cell Volume</t>
+  </si>
+  <si>
+    <t>Sea Surface Height Above Geoid</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>m s-1</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>area: sum</t>
+  </si>
+  <si>
+    <t>area: mean where sea</t>
+  </si>
+  <si>
+    <t>area: mean where sea time: mean</t>
+  </si>
+  <si>
+    <t>area: mean</t>
+  </si>
+  <si>
+    <t>time: mean</t>
+  </si>
+  <si>
+    <t>['fx']</t>
+  </si>
+  <si>
+    <t>['mon', 'day']</t>
+  </si>
+  <si>
+    <t>['mon']</t>
+  </si>
+  <si>
+    <t>friver</t>
+  </si>
+  <si>
+    <t>hfcorr</t>
+  </si>
+  <si>
+    <t>hfds</t>
+  </si>
+  <si>
+    <t>rhop</t>
+  </si>
+  <si>
+    <t>rsntds</t>
+  </si>
+  <si>
     <t>tauuo</t>
   </si>
   <si>
     <t>tauvo</t>
   </si>
   <si>
+    <t>uos</t>
+  </si>
+  <si>
+    <t>vos</t>
+  </si>
+  <si>
+    <t>wfo</t>
+  </si>
+  <si>
+    <t>wfonocorr</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>water_flux_into_sea_water_from_rivers</t>
+  </si>
+  <si>
+    <t>heat_flux_correction</t>
+  </si>
+  <si>
+    <t>surface_downward_heat_flux_in_sea_water</t>
+  </si>
+  <si>
+    <t>sea_water_potential_density</t>
+  </si>
+  <si>
+    <t>net_downward_shortwave_flux_at_sea_water_surface</t>
+  </si>
+  <si>
     <t>downward_x_stress_at_sea_water_surface</t>
   </si>
   <si>
     <t>downward_y_stress_at_sea_water_surface</t>
   </si>
   <si>
+    <t>surface_eastward_sea_water_velocity</t>
+  </si>
+  <si>
+    <t>surface_northward_sea_water_velocity</t>
+  </si>
+  <si>
+    <t>water_flux_into_sea_water</t>
+  </si>
+  <si>
+    <t>water_flux_into_sea_water_without_flux_correction</t>
+  </si>
+  <si>
+    <t>upward_sea_water_velocity</t>
+  </si>
+  <si>
+    <t>Water Flux into Sea Water from Rivers</t>
+  </si>
+  <si>
+    <t>Heat Flux Correction</t>
+  </si>
+  <si>
+    <t>Downward Heat Flux at Sea Water Surface</t>
+  </si>
+  <si>
+    <t>Sea Water Potential Density</t>
+  </si>
+  <si>
+    <t>Net Downward Shortwave Radiation at Sea Water Surface</t>
+  </si>
+  <si>
     <t>Sea Water Surface Downward X Stress</t>
   </si>
   <si>
     <t>Sea Water Surface Downward Y Stress</t>
   </si>
   <si>
+    <t>Surface X Velocity</t>
+  </si>
+  <si>
+    <t>Surface Y Velocity</t>
+  </si>
+  <si>
+    <t>Water Flux into Sea Water</t>
+  </si>
+  <si>
+    <t>Water Flux into Sea Water Without Flux Correction</t>
+  </si>
+  <si>
+    <t>Sea Water Upward Velocity</t>
+  </si>
+  <si>
+    <t>kg m-2 s-1</t>
+  </si>
+  <si>
+    <t>W m-2</t>
+  </si>
+  <si>
+    <t>kg m-3</t>
+  </si>
+  <si>
     <t>N m-2</t>
   </si>
   <si>
-    <t>area: mean where sea time: mean</t>
-  </si>
-  <si>
-    <t>['mon', 'day']</t>
+    <t>['day']</t>
+  </si>
+  <si>
+    <t>difvho</t>
+  </si>
+  <si>
+    <t>tob</t>
+  </si>
+  <si>
+    <t>ocean_vertical_heat_diffusivity</t>
+  </si>
+  <si>
+    <t>sea_water_potential_temperature_at_sea_floor</t>
+  </si>
+  <si>
+    <t>Vertical Eddy Diffusivity</t>
+  </si>
+  <si>
+    <t>Sea Water Potential Temperature at Sea Floor</t>
+  </si>
+  <si>
+    <t>m2 s-1</t>
+  </si>
+  <si>
+    <t>area: mean where sea time: point</t>
+  </si>
+  <si>
+    <t>['1hr']</t>
   </si>
 </sst>
 </file>
@@ -418,7 +703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,6 +732,266 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -454,7 +999,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,42 +1030,262 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +1295,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,6 +1324,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-request/dreq_ocean.xlsx
+++ b/data-request/dreq_ocean.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="110">
   <si>
     <t>frequency</t>
   </si>
@@ -219,6 +219,9 @@
     <t>tauvo</t>
   </si>
   <si>
+    <t>tob</t>
+  </si>
+  <si>
     <t>uos</t>
   </si>
   <si>
@@ -255,6 +258,9 @@
     <t>downward_y_stress_at_sea_water_surface</t>
   </si>
   <si>
+    <t>sea_water_potential_temperature_at_sea_floor</t>
+  </si>
+  <si>
     <t>surface_eastward_sea_water_velocity</t>
   </si>
   <si>
@@ -291,6 +297,9 @@
     <t>Sea Water Surface Downward Y Stress</t>
   </si>
   <si>
+    <t>Sea Water Potential Temperature at Sea Floor</t>
+  </si>
+  <si>
     <t>Surface X Velocity</t>
   </si>
   <si>
@@ -324,19 +333,10 @@
     <t>difvho</t>
   </si>
   <si>
-    <t>tob</t>
-  </si>
-  <si>
     <t>ocean_vertical_heat_diffusivity</t>
   </si>
   <si>
-    <t>sea_water_potential_temperature_at_sea_floor</t>
-  </si>
-  <si>
     <t>Vertical Eddy Diffusivity</t>
-  </si>
-  <si>
-    <t>Sea Water Potential Temperature at Sea Floor</t>
   </si>
   <si>
     <t>m2 s-1</t>
@@ -999,7 +999,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1033,13 +1033,13 @@
         <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>54</v>
@@ -1053,13 +1053,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>54</v>
@@ -1073,13 +1073,13 @@
         <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>54</v>
@@ -1093,13 +1093,13 @@
         <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>54</v>
@@ -1113,13 +1113,13 @@
         <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>54</v>
@@ -1133,13 +1133,13 @@
         <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>54</v>
@@ -1153,13 +1153,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>54</v>
@@ -1185,7 +1185,7 @@
         <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1193,19 +1193,19 @@
         <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1213,10 +1213,10 @@
         <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>50</v>
@@ -1225,7 +1225,7 @@
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1233,19 +1233,19 @@
         <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1253,13 +1253,13 @@
         <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>54</v>
@@ -1273,18 +1273,38 @@
         <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1326,13 +1346,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>107</v>
@@ -1341,7 +1361,7 @@
         <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1349,19 +1369,19 @@
         <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1381,18 +1401,18 @@
         <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>49</v>
@@ -1401,7 +1421,7 @@
         <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1441,7 +1461,7 @@
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1461,18 +1481,18 @@
         <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>50</v>
@@ -1481,7 +1501,7 @@
         <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
